--- a/BackTest/2019-10-24 BackTest SNT.xlsx
+++ b/BackTest/2019-10-24 BackTest SNT.xlsx
@@ -2007,7 +2007,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
         <v>13.49</v>
@@ -2057,9 +2057,7 @@
       <c r="J36" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>13.5</v>
       </c>
@@ -2108,9 +2106,7 @@
       <c r="J37" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>13.5</v>
       </c>
@@ -2159,9 +2155,7 @@
       <c r="J38" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>13.5</v>
       </c>
@@ -2210,9 +2204,7 @@
       <c r="J39" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>13.5</v>
       </c>
@@ -2261,9 +2253,7 @@
       <c r="J40" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>13.5</v>
       </c>
@@ -2312,9 +2302,7 @@
       <c r="J41" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>13.5</v>
       </c>
@@ -2363,9 +2351,7 @@
       <c r="J42" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>13.5</v>
       </c>
@@ -2414,9 +2400,7 @@
       <c r="J43" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>13.5</v>
       </c>
@@ -2465,9 +2449,7 @@
       <c r="J44" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>13.5</v>
       </c>
@@ -2516,9 +2498,7 @@
       <c r="J45" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>13.5</v>
       </c>
@@ -2567,9 +2547,7 @@
       <c r="J46" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>13.5</v>
       </c>
@@ -3666,7 +3644,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K68" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L68" t="n">
         <v>13.51</v>
@@ -3717,7 +3695,7 @@
         <v>0.7999999999999972</v>
       </c>
       <c r="K69" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L69" t="n">
         <v>13.48</v>
@@ -3768,7 +3746,7 @@
         <v>0.8999999999999968</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>13.46</v>

--- a/BackTest/2019-10-24 BackTest SNT.xlsx
+++ b/BackTest/2019-10-24 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,130 +394,102 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F2" t="n">
-        <v>2436.9185</v>
+        <v>7052.9641</v>
       </c>
       <c r="G2" t="n">
-        <v>13.51833333333333</v>
+        <v>-780626.8891759436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D3" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E3" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F3" t="n">
-        <v>193.6296</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>13.51666666666666</v>
+        <v>-780626.8891759436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -525,42 +497,35 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F4" t="n">
-        <v>5487603.3667</v>
+        <v>20833.3823</v>
       </c>
       <c r="G4" t="n">
-        <v>13.51499999999999</v>
+        <v>-780626.8891759436</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -568,20 +533,13 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -600,10 +558,10 @@
         <v>13.5</v>
       </c>
       <c r="F5" t="n">
-        <v>16643720.1012</v>
+        <v>1931.7037</v>
       </c>
       <c r="G5" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -611,20 +569,13 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -643,10 +594,10 @@
         <v>13.5</v>
       </c>
       <c r="F6" t="n">
-        <v>16523113.4338</v>
+        <v>47800</v>
       </c>
       <c r="G6" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -654,20 +605,13 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -686,10 +630,10 @@
         <v>13.5</v>
       </c>
       <c r="F7" t="n">
-        <v>16583416.7675</v>
+        <v>52993.9739</v>
       </c>
       <c r="G7" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -697,20 +641,13 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -729,10 +666,10 @@
         <v>13.5</v>
       </c>
       <c r="F8" t="n">
-        <v>16704023.4349</v>
+        <v>16.3167</v>
       </c>
       <c r="G8" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -740,20 +677,13 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -772,10 +702,10 @@
         <v>13.5</v>
       </c>
       <c r="F9" t="n">
-        <v>16824630.1023</v>
+        <v>1097.0308</v>
       </c>
       <c r="G9" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -783,20 +713,13 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -815,10 +738,10 @@
         <v>13.5</v>
       </c>
       <c r="F10" t="n">
-        <v>16643720.1012</v>
+        <v>460000</v>
       </c>
       <c r="G10" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -826,20 +749,13 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -858,10 +774,10 @@
         <v>13.5</v>
       </c>
       <c r="F11" t="n">
-        <v>16764326.7686</v>
+        <v>6049.5733</v>
       </c>
       <c r="G11" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -869,22 +785,13 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -903,10 +810,10 @@
         <v>13.5</v>
       </c>
       <c r="F12" t="n">
-        <v>16884933.436</v>
+        <v>3185.4426</v>
       </c>
       <c r="G12" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -914,22 +821,13 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -948,10 +846,10 @@
         <v>13.5</v>
       </c>
       <c r="F13" t="n">
-        <v>16824630.1023</v>
+        <v>69699.07090000001</v>
       </c>
       <c r="G13" t="n">
-        <v>13.51333333333333</v>
+        <v>-782558.5928759435</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -959,44 +857,35 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D14" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E14" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F14" t="n">
-        <v>16808240.2244</v>
+        <v>33562</v>
       </c>
       <c r="G14" t="n">
-        <v>13.51333333333333</v>
+        <v>-816120.5928759435</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1004,44 +893,35 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C15" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D15" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E15" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F15" t="n">
-        <v>16281900.099</v>
+        <v>16362.1709</v>
       </c>
       <c r="G15" t="n">
-        <v>13.51499999999999</v>
+        <v>-816120.5928759435</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1049,44 +929,35 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C16" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E16" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F16" t="n">
-        <v>16040686.7642</v>
+        <v>11845.9522</v>
       </c>
       <c r="G16" t="n">
-        <v>13.51666666666666</v>
+        <v>-827966.5450759435</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1094,112 +965,97 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C17" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D17" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E17" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F17" t="n">
-        <v>16704023.4349</v>
+        <v>260000</v>
       </c>
       <c r="G17" t="n">
-        <v>13.51999999999999</v>
+        <v>-827966.5450759435</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C18" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D18" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F18" t="n">
-        <v>16523113.4338</v>
+        <v>10200</v>
       </c>
       <c r="G18" t="n">
-        <v>13.52333333333333</v>
+        <v>-827966.5450759435</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1218,33 +1074,32 @@
         <v>13.5</v>
       </c>
       <c r="F19" t="n">
-        <v>16704023.4349</v>
+        <v>20200</v>
       </c>
       <c r="G19" t="n">
-        <v>13.52666666666666</v>
+        <v>-807766.5450759435</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1263,33 +1118,28 @@
         <v>13.5</v>
       </c>
       <c r="F20" t="n">
-        <v>16342203.4327</v>
+        <v>444.4444</v>
       </c>
       <c r="G20" t="n">
-        <v>13.52666666666666</v>
+        <v>-807766.5450759435</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>13.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1308,35 +1158,32 @@
         <v>13.5</v>
       </c>
       <c r="F21" t="n">
-        <v>16657936.1012</v>
+        <v>21000</v>
       </c>
       <c r="G21" t="n">
-        <v>13.52666666666666</v>
+        <v>-807766.5450759435</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>13.5</v>
+        <v>13.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1355,129 +1202,116 @@
         <v>13.5</v>
       </c>
       <c r="F22" t="n">
-        <v>16584463.7675</v>
+        <v>10774.8511</v>
       </c>
       <c r="G22" t="n">
-        <v>13.52666666666666</v>
+        <v>-807766.5450759435</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>13.5</v>
+        <v>13.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F23" t="n">
-        <v>16507850.4338</v>
+        <v>131.1029411764706</v>
       </c>
       <c r="G23" t="n">
-        <v>13.52666666666666</v>
+        <v>-807635.442134767</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>13.5</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F24" t="n">
-        <v>16116253.0979</v>
+        <v>3870.9254</v>
       </c>
       <c r="G24" t="n">
-        <v>13.525</v>
+        <v>-811506.3675347669</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1496,84 +1330,72 @@
         <v>13.5</v>
       </c>
       <c r="F25" t="n">
-        <v>9753877.0594</v>
+        <v>2509.1792</v>
       </c>
       <c r="G25" t="n">
-        <v>13.52666666666666</v>
+        <v>-808997.1883347669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C26" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D26" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E26" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F26" t="n">
-        <v>43803.6721</v>
+        <v>4086.8454</v>
       </c>
       <c r="G26" t="n">
-        <v>13.525</v>
+        <v>-804910.3429347669</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09999999999999964</v>
+        <v>13.5</v>
       </c>
       <c r="K26" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>13.49</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>13.495</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1592,86 +1414,76 @@
         <v>13.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1281981.476</v>
+        <v>1935.0667</v>
       </c>
       <c r="G27" t="n">
-        <v>13.52333333333333</v>
+        <v>-806845.4096347669</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1999999999999993</v>
+        <v>13.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>13.49</v>
+        <v>13.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>13.495</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C28" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D28" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E28" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F28" t="n">
-        <v>4729472.202</v>
+        <v>99657.9595</v>
       </c>
       <c r="G28" t="n">
-        <v>13.52333333333333</v>
+        <v>-707187.4501347669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1999999999999993</v>
+        <v>13.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>13.49</v>
+        <v>13.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>13.495</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1690,10 +1502,10 @@
         <v>13.5</v>
       </c>
       <c r="F29" t="n">
-        <v>4746796.276</v>
+        <v>2775.7541</v>
       </c>
       <c r="G29" t="n">
-        <v>13.52166666666666</v>
+        <v>-709963.2042347669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1701,26 +1513,13 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>13.49</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>13.495</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1739,10 +1538,10 @@
         <v>13.5</v>
       </c>
       <c r="F30" t="n">
-        <v>4712148.128</v>
+        <v>2323.102</v>
       </c>
       <c r="G30" t="n">
-        <v>13.52166666666666</v>
+        <v>-709963.2042347669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1750,26 +1549,13 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>13.49</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>13.495</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1788,10 +1574,10 @@
         <v>13.5</v>
       </c>
       <c r="F31" t="n">
-        <v>4642851.832</v>
+        <v>2787.1353</v>
       </c>
       <c r="G31" t="n">
-        <v>13.52166666666666</v>
+        <v>-709963.2042347669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1799,101 +1585,75 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>13.49</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C32" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D32" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E32" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F32" t="n">
-        <v>4729472.202</v>
+        <v>3862.806</v>
       </c>
       <c r="G32" t="n">
-        <v>13.52166666666666</v>
+        <v>-713826.0102347669</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1999999999999993</v>
+        <v>13.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>13.49</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C33" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D33" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E33" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F33" t="n">
-        <v>4746796.276</v>
+        <v>1883.0995</v>
       </c>
       <c r="G33" t="n">
-        <v>13.52333333333333</v>
+        <v>-713826.0102347669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1901,28 +1661,19 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>13.49</v>
+        <v>13.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N33" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1941,39 +1692,32 @@
         <v>13.5</v>
       </c>
       <c r="F34" t="n">
-        <v>4764120.35</v>
+        <v>2767.4497</v>
       </c>
       <c r="G34" t="n">
-        <v>13.525</v>
+        <v>-711058.5605347669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1999999999999993</v>
+        <v>13.4</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>13.49</v>
+        <v>13.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1992,10 +1736,10 @@
         <v>13.5</v>
       </c>
       <c r="F35" t="n">
-        <v>4768898.128</v>
+        <v>24019.6856</v>
       </c>
       <c r="G35" t="n">
-        <v>13.525</v>
+        <v>-711058.5605347669</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2003,126 +1747,97 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K35" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" t="n">
-        <v>13.49</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N35" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C36" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D36" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E36" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F36" t="n">
-        <v>7698867.1118</v>
+        <v>723.0221</v>
       </c>
       <c r="G36" t="n">
-        <v>13.525</v>
+        <v>-711781.5826347668</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>13.5</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N36" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C37" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D37" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E37" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F37" t="n">
-        <v>12798385.9899</v>
+        <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>13.52666666666666</v>
+        <v>-711781.5826347668</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2141,37 +1856,32 @@
         <v>13.5</v>
       </c>
       <c r="F38" t="n">
-        <v>9449962.07</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>13.52833333333333</v>
+        <v>-711770.5826347668</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N38" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2190,59 +1900,50 @@
         <v>13.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1366582.0664</v>
+        <v>19989</v>
       </c>
       <c r="G39" t="n">
-        <v>13.52833333333333</v>
+        <v>-711770.5826347668</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>13.5</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C40" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D40" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E40" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F40" t="n">
-        <v>5198242.0982</v>
+        <v>36764.7058</v>
       </c>
       <c r="G40" t="n">
-        <v>13.52833333333333</v>
+        <v>-675005.8768347668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2250,124 +1951,103 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>13.5</v>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N40" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F41" t="n">
-        <v>5161243.9338</v>
+        <v>1919.7487</v>
       </c>
       <c r="G41" t="n">
-        <v>13.52666666666666</v>
+        <v>-676925.6255347668</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N41" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C42" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D42" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E42" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F42" t="n">
-        <v>5142744.8516</v>
+        <v>36624.3382</v>
       </c>
       <c r="G42" t="n">
-        <v>13.52833333333333</v>
+        <v>-640301.2873347668</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>13.5</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N42" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2386,10 +2066,10 @@
         <v>13.5</v>
       </c>
       <c r="F43" t="n">
-        <v>5161243.9338</v>
+        <v>4252.9606</v>
       </c>
       <c r="G43" t="n">
-        <v>13.52666666666666</v>
+        <v>-644554.2479347668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2397,48 +2077,41 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>13.5</v>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N43" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C44" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D44" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E44" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F44" t="n">
-        <v>5161243.9338</v>
+        <v>7352.941176470588</v>
       </c>
       <c r="G44" t="n">
-        <v>13.52666666666666</v>
+        <v>-637201.3067582962</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2446,26 +2119,19 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>13.5</v>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N44" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2484,59 +2150,50 @@
         <v>13.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5087247.605</v>
+        <v>1445.8762</v>
       </c>
       <c r="G45" t="n">
-        <v>13.525</v>
+        <v>-638647.1829582963</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>13.5</v>
-      </c>
+        <v>13.6</v>
+      </c>
+      <c r="K45" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C46" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D46" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E46" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F46" t="n">
-        <v>5087247.605</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
-        <v>13.525</v>
+        <v>-638565.1829582963</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2544,48 +2201,41 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>13.5</v>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E47" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F47" t="n">
-        <v>5087247.605</v>
+        <v>6760.6666</v>
       </c>
       <c r="G47" t="n">
-        <v>13.52166666666666</v>
+        <v>-645325.8495582963</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2593,48 +2243,41 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>13.5</v>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C48" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D48" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E48" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F48" t="n">
-        <v>5142744.8516</v>
+        <v>5593.873445985401</v>
       </c>
       <c r="G48" t="n">
-        <v>13.51999999999999</v>
+        <v>-645325.8495582963</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2642,48 +2285,35 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N48" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C49" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D49" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E49" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F49" t="n">
-        <v>5216741.1804</v>
+        <v>35799.27</v>
       </c>
       <c r="G49" t="n">
-        <v>13.51833333333333</v>
+        <v>-609526.5795582962</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2691,48 +2321,35 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N49" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C50" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D50" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E50" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F50" t="n">
-        <v>5235240.2626</v>
+        <v>8296</v>
       </c>
       <c r="G50" t="n">
-        <v>13.51499999999999</v>
+        <v>-617822.5795582962</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2740,48 +2357,35 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C51" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D51" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E51" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F51" t="n">
-        <v>5105746.6872</v>
+        <v>18248.17518248175</v>
       </c>
       <c r="G51" t="n">
-        <v>13.51333333333333</v>
+        <v>-599574.4043758145</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2789,48 +2393,35 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N51" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C52" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D52" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E52" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1331933.9184</v>
+        <v>208051.5686</v>
       </c>
       <c r="G52" t="n">
-        <v>13.50999999999999</v>
+        <v>-807625.9729758145</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2838,48 +2429,35 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C53" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D53" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E53" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F53" t="n">
-        <v>24000</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>13.50833333333333</v>
+        <v>-807525.9729758145</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2887,48 +2465,35 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N53" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C54" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D54" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E54" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F54" t="n">
-        <v>24000</v>
+        <v>2519.27</v>
       </c>
       <c r="G54" t="n">
-        <v>13.50499999999999</v>
+        <v>-807525.9729758145</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2936,48 +2501,35 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N54" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C55" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D55" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E55" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>10331.1469</v>
       </c>
       <c r="G55" t="n">
-        <v>13.50166666666666</v>
+        <v>-817857.1198758145</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2985,48 +2537,35 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C56" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D56" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E56" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F56" t="n">
-        <v>28881.8949</v>
+        <v>2803.4755</v>
       </c>
       <c r="G56" t="n">
-        <v>13.49999999999999</v>
+        <v>-817857.1198758145</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3034,48 +2573,35 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C57" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D57" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E57" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F57" t="n">
-        <v>14410.7715</v>
+        <v>2289.9431</v>
       </c>
       <c r="G57" t="n">
-        <v>13.49833333333332</v>
+        <v>-817857.1198758145</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3083,26 +2609,13 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N57" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3121,10 +2634,10 @@
         <v>13.5</v>
       </c>
       <c r="F58" t="n">
-        <v>75444.2285</v>
+        <v>19365.3517</v>
       </c>
       <c r="G58" t="n">
-        <v>13.49666666666666</v>
+        <v>-837222.4715758145</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3132,179 +2645,141 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N58" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C59" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D59" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E59" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F59" t="n">
-        <v>13113.897</v>
+        <v>16344.4202</v>
       </c>
       <c r="G59" t="n">
-        <v>13.49833333333332</v>
+        <v>-853566.8917758146</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2999999999999989</v>
+        <v>13.5</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>13.51</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>13.505</v>
-      </c>
-      <c r="N59" t="n">
-        <v>13.50333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C60" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D60" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E60" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F60" t="n">
-        <v>2205.882352941177</v>
+        <v>5980</v>
       </c>
       <c r="G60" t="n">
-        <v>13.50166666666666</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2999999999999989</v>
+        <v>13.4</v>
       </c>
       <c r="K60" t="n">
-        <v>100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>13.52</v>
+        <v>13.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="N60" t="n">
-        <v>13.50666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C61" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D61" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E61" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F61" t="n">
-        <v>121559.4852</v>
+        <v>2436.9185</v>
       </c>
       <c r="G61" t="n">
-        <v>13.50333333333332</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2999999999999989</v>
+        <v>13.5</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
-      </c>
-      <c r="L61" t="n">
-        <v>13.53</v>
+        <v>13.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>13.515</v>
-      </c>
-      <c r="N61" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3323,90 +2798,72 @@
         <v>13.5</v>
       </c>
       <c r="F62" t="n">
-        <v>172619.8268</v>
+        <v>193.6296</v>
       </c>
       <c r="G62" t="n">
-        <v>13.50333333333332</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3999999999999986</v>
+        <v>13.5</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>13.53</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>13.515</v>
-      </c>
-      <c r="N62" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E63" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F63" t="n">
-        <v>1470.588235294118</v>
+        <v>5487603.3667</v>
       </c>
       <c r="G63" t="n">
-        <v>13.50499999999999</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4999999999999982</v>
+        <v>13.5</v>
       </c>
       <c r="K63" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>13.54</v>
+        <v>13.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="N63" t="n">
-        <v>13.51333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3425,39 +2882,32 @@
         <v>13.5</v>
       </c>
       <c r="F64" t="n">
-        <v>140586.7173</v>
+        <v>16643720.1012</v>
       </c>
       <c r="G64" t="n">
-        <v>13.50499999999999</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5999999999999979</v>
+        <v>13.5</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>13.54</v>
+        <v>13.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="N64" t="n">
-        <v>13.51333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3476,10 +2926,10 @@
         <v>13.5</v>
       </c>
       <c r="F65" t="n">
-        <v>60634.2411</v>
+        <v>16523113.4338</v>
       </c>
       <c r="G65" t="n">
-        <v>13.50499999999999</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3487,283 +2937,1921 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>13.54</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="N65" t="n">
-        <v>13.51333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F66" t="n">
-        <v>2277.922</v>
+        <v>16583416.7675</v>
       </c>
       <c r="G66" t="n">
-        <v>13.50333333333332</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6999999999999975</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L66" t="n">
-        <v>13.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>13.515</v>
-      </c>
-      <c r="N66" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C67" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D67" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E67" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F67" t="n">
-        <v>95197.125</v>
+        <v>16704023.4349</v>
       </c>
       <c r="G67" t="n">
-        <v>13.50166666666666</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6999999999999975</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L67" t="n">
-        <v>13.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="N67" t="n">
-        <v>13.50666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C68" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D68" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E68" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F68" t="n">
-        <v>2300</v>
+        <v>16824630.1023</v>
       </c>
       <c r="G68" t="n">
-        <v>13.49999999999999</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6999999999999975</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L68" t="n">
-        <v>13.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>13.505</v>
-      </c>
-      <c r="N68" t="n">
-        <v>13.50333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C69" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D69" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E69" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F69" t="n">
-        <v>80020.33409999999</v>
+        <v>16643720.1012</v>
       </c>
       <c r="G69" t="n">
-        <v>13.49666666666666</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L69" t="n">
-        <v>13.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="N69" t="n">
-        <v>13.49666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C70" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D70" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E70" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F70" t="n">
-        <v>2365.199</v>
+        <v>16764326.7686</v>
       </c>
       <c r="G70" t="n">
-        <v>13.49499999999999</v>
+        <v>-847586.8917758146</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8999999999999968</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>13.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="N70" t="n">
-        <v>13.49333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16884933.436</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16824630.1023</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>16808240.2244</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>16281900.099</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16040686.7642</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16704023.4349</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16523113.4338</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>16704023.4349</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>16342203.4327</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16657936.1012</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>16584463.7675</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16507850.4338</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16116253.0979</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9753877.0594</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-847586.8917758146</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>43803.6721</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-891390.5638758146</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1281981.476</v>
+      </c>
+      <c r="G86" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4729472.202</v>
+      </c>
+      <c r="G87" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4746796.276</v>
+      </c>
+      <c r="G88" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4712148.128</v>
+      </c>
+      <c r="G89" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4642851.832</v>
+      </c>
+      <c r="G90" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4729472.202</v>
+      </c>
+      <c r="G91" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4746796.276</v>
+      </c>
+      <c r="G92" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4764120.35</v>
+      </c>
+      <c r="G93" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4768898.128</v>
+      </c>
+      <c r="G94" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7698867.1118</v>
+      </c>
+      <c r="G95" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12798385.9899</v>
+      </c>
+      <c r="G96" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9449962.07</v>
+      </c>
+      <c r="G97" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1366582.0664</v>
+      </c>
+      <c r="G98" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5198242.0982</v>
+      </c>
+      <c r="G99" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5161243.9338</v>
+      </c>
+      <c r="G100" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5142744.8516</v>
+      </c>
+      <c r="G101" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5161243.9338</v>
+      </c>
+      <c r="G102" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5161243.9338</v>
+      </c>
+      <c r="G103" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5087247.605</v>
+      </c>
+      <c r="G104" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5087247.605</v>
+      </c>
+      <c r="G105" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5087247.605</v>
+      </c>
+      <c r="G106" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5142744.8516</v>
+      </c>
+      <c r="G107" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5216741.1804</v>
+      </c>
+      <c r="G108" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5235240.2626</v>
+      </c>
+      <c r="G109" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5105746.6872</v>
+      </c>
+      <c r="G110" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1331933.9184</v>
+      </c>
+      <c r="G111" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>28881.8949</v>
+      </c>
+      <c r="G115" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>14410.7715</v>
+      </c>
+      <c r="G116" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>75444.2285</v>
+      </c>
+      <c r="G117" t="n">
+        <v>390590.9121241855</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13113.897</v>
+      </c>
+      <c r="G118" t="n">
+        <v>403704.8091241855</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-24 BackTest SNT.xlsx
+++ b/BackTest/2019-10-24 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-816120.5928759435</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,10 +880,14 @@
         <v>-816120.5928759435</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +917,19 @@
         <v>-827966.5450759435</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +958,19 @@
         <v>-827966.5450759435</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +999,19 @@
         <v>-827966.5450759435</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,15 +1040,19 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>13.3</v>
       </c>
       <c r="J19" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,15 +1081,17 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J20" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1088,15 +1122,17 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J21" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1127,15 +1163,19 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>13.5</v>
       </c>
       <c r="J22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1164,15 +1204,17 @@
         <v>-807635.442134767</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J23" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1203,15 +1245,17 @@
         <v>-811506.3675347669</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1242,11 +1286,19 @@
         <v>-808997.1883347669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1327,19 @@
         <v>-804910.3429347669</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1368,19 @@
         <v>-806845.4096347669</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1341,15 +1409,19 @@
         <v>-707187.4501347669</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>13.5</v>
       </c>
       <c r="J28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1378,15 +1450,17 @@
         <v>-709963.2042347669</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J29" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1417,17 +1491,17 @@
         <v>-709963.2042347669</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1458,11 +1532,19 @@
         <v>-709963.2042347669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1573,19 @@
         <v>-713826.0102347669</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1524,11 +1614,19 @@
         <v>-713826.0102347669</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1557,7 +1655,7 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>13.4</v>
@@ -1565,7 +1663,11 @@
       <c r="J34" t="n">
         <v>13.4</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1594,7 +1696,7 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>13.5</v>
@@ -1604,7 +1706,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1635,7 +1737,7 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>13.5</v>
@@ -1645,7 +1747,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1676,7 +1778,7 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>13.4</v>
@@ -1684,7 +1786,11 @@
       <c r="J37" t="n">
         <v>13.4</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1713,7 +1819,7 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>13.4</v>
@@ -1723,7 +1829,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1754,7 +1860,7 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>13.5</v>
@@ -1764,7 +1870,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1795,15 +1901,19 @@
         <v>-675005.8768347668</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>13.5</v>
       </c>
       <c r="J40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1832,17 +1942,17 @@
         <v>-676925.6255347668</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>13.6</v>
       </c>
       <c r="J41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1873,15 +1983,17 @@
         <v>-640301.2873347668</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J42" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1912,15 +2024,19 @@
         <v>-644554.2479347668</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>13.6</v>
       </c>
       <c r="J43" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1949,15 +2065,17 @@
         <v>-637201.3067582962</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J44" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1988,17 +2106,15 @@
         <v>-638647.1829582963</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2032,8 +2148,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2065,8 +2187,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +2223,17 @@
         <v>-645325.8495582963</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2131,8 +2265,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2164,8 +2304,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2197,8 +2343,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2227,11 +2379,17 @@
         <v>-807625.9729758145</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2263,8 +2421,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2457,17 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2329,8 +2499,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2362,8 +2538,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2395,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2428,8 +2616,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2458,15 +2652,19 @@
         <v>-853566.8917758146</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>13.5</v>
       </c>
       <c r="J59" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2495,17 +2693,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>13.4</v>
       </c>
       <c r="J60" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2536,17 +2734,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>13.5</v>
       </c>
       <c r="J61" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2577,15 +2775,19 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>13.5</v>
       </c>
       <c r="J62" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2614,17 +2816,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>13.5</v>
       </c>
       <c r="J63" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2655,17 +2857,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>13.5</v>
       </c>
       <c r="J64" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2699,8 +2901,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2765,8 +2979,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2798,8 +3018,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2831,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2864,8 +3096,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3171,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2963,8 +3213,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +3252,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +3291,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3062,8 +3330,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3369,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3408,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3161,8 +3447,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3525,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3603,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3642,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3681,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3720,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3759,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +3798,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +3837,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +3915,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3590,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +4071,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4149,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4227,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4539,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +4575,17 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +4614,17 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +4653,17 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4250,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4382,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4412,13 +4926,19 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>1.002462686567164</v>
       </c>
       <c r="M117" t="inlineStr"/>
     </row>
@@ -4445,7 +4965,7 @@
         <v>403704.8091241855</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4456,6 +4976,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest SNT.xlsx
+++ b/BackTest/2019-10-24 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -880,14 +880,10 @@
         <v>-816120.5928759435</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -917,19 +913,11 @@
         <v>-827966.5450759435</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -964,13 +952,9 @@
         <v>13.3</v>
       </c>
       <c r="J17" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>13.3</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1005,11 +989,11 @@
         <v>13.3</v>
       </c>
       <c r="J18" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1046,11 +1030,11 @@
         <v>13.3</v>
       </c>
       <c r="J19" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1087,13 +1071,9 @@
         <v>13.5</v>
       </c>
       <c r="J20" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1122,17 +1102,15 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1163,17 +1141,15 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1204,19 +1180,11 @@
         <v>-807635.442134767</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1245,19 +1213,11 @@
         <v>-811506.3675347669</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1286,19 +1246,11 @@
         <v>-808997.1883347669</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1327,19 +1279,11 @@
         <v>-804910.3429347669</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1368,19 +1312,11 @@
         <v>-806845.4096347669</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1409,19 +1345,11 @@
         <v>-707187.4501347669</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1450,19 +1378,11 @@
         <v>-709963.2042347669</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,19 +1411,11 @@
         <v>-709963.2042347669</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1532,19 +1444,11 @@
         <v>-709963.2042347669</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,19 +1477,11 @@
         <v>-713826.0102347669</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1614,19 +1510,11 @@
         <v>-713826.0102347669</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1655,19 +1543,11 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1576,11 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1737,19 +1609,11 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1778,19 +1642,11 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1819,19 +1675,11 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1860,19 +1708,11 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1901,19 +1741,11 @@
         <v>-675005.8768347668</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1942,19 +1774,11 @@
         <v>-676925.6255347668</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1983,19 +1807,11 @@
         <v>-640301.2873347668</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2024,19 +1840,11 @@
         <v>-644554.2479347668</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2065,19 +1873,11 @@
         <v>-637201.3067582962</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2109,14 +1909,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2148,14 +1942,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2187,14 +1975,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2226,14 +2008,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2262,17 +2038,11 @@
         <v>-609526.5795582962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2301,17 +2071,11 @@
         <v>-617822.5795582962</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2340,17 +2104,11 @@
         <v>-599574.4043758145</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2379,17 +2137,11 @@
         <v>-807625.9729758145</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2418,17 +2170,11 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2457,17 +2203,11 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2496,17 +2236,11 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2535,17 +2269,11 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2574,17 +2302,11 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2613,17 +2335,11 @@
         <v>-837222.4715758145</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2652,19 +2368,11 @@
         <v>-853566.8917758146</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2693,19 +2401,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2734,19 +2434,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2775,19 +2467,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +2500,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2857,19 +2533,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2898,17 +2566,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2937,17 +2599,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2976,17 +2632,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3015,17 +2665,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3054,17 +2698,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3093,17 +2731,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3132,17 +2764,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3171,17 +2797,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3210,17 +2830,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3249,17 +2863,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3288,17 +2896,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3327,17 +2929,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3366,17 +2962,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3405,17 +2995,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3444,17 +3028,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3483,17 +3061,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3522,17 +3094,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3561,17 +3127,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3600,17 +3160,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3639,17 +3193,11 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3678,17 +3226,11 @@
         <v>-891390.5638758146</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3295,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3795,17 +3325,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3834,17 +3358,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3394,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3915,14 +3427,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3460,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3493,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3526,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4068,17 +3556,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4107,17 +3589,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4146,17 +3622,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4185,17 +3655,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3691,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4263,17 +3721,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4302,17 +3754,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3823,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4419,17 +3853,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4458,17 +3886,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4497,17 +3919,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4536,17 +3952,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4575,17 +3985,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4614,17 +4018,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4653,17 +4051,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4692,17 +4084,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4731,17 +4117,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4770,17 +4150,11 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4926,19 +4282,13 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>1.002462686567164</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
     </row>
@@ -4965,7 +4315,7 @@
         <v>403704.8091241855</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4976,6 +4326,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest SNT.xlsx
+++ b/BackTest/2019-10-24 BackTest SNT.xlsx
@@ -451,7 +451,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-780626.8891759436</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-782558.5928759435</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-816120.5928759435</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1141,9 +1141,11 @@
         <v>-807766.5450759435</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J22" t="n">
         <v>13.5</v>
       </c>
@@ -1180,10 +1182,14 @@
         <v>-807635.442134767</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1213,11 +1219,19 @@
         <v>-811506.3675347669</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1246,11 +1260,19 @@
         <v>-808997.1883347669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1279,10 +1301,14 @@
         <v>-804910.3429347669</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1315,8 +1341,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1348,8 +1380,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1543,10 +1581,14 @@
         <v>-711058.5605347669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1579,8 +1621,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1660,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1642,10 +1696,14 @@
         <v>-711781.5826347668</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1675,11 +1733,19 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1708,11 +1774,19 @@
         <v>-711770.5826347668</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1741,10 +1815,14 @@
         <v>-675005.8768347668</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1774,11 +1852,19 @@
         <v>-676925.6255347668</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1807,11 +1893,19 @@
         <v>-640301.2873347668</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1972,7 +2066,7 @@
         <v>-645325.8495582963</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2005,7 +2099,7 @@
         <v>-645325.8495582963</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2104,7 +2198,7 @@
         <v>-599574.4043758145</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2170,7 +2264,7 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2203,7 +2297,7 @@
         <v>-807525.9729758145</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2236,7 +2330,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2269,7 +2363,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2302,7 +2396,7 @@
         <v>-817857.1198758145</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2429,7 @@
         <v>-837222.4715758145</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2368,7 +2462,7 @@
         <v>-853566.8917758146</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2401,10 +2495,14 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>13.4</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2434,11 +2532,19 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2573,19 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2500,10 +2614,14 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2533,11 +2651,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2690,17 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2632,7 +2762,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2665,7 +2795,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2698,7 +2828,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2731,7 +2861,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2764,7 +2894,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2797,7 +2927,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2830,7 +2960,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2863,7 +2993,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2896,7 +3026,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2929,7 +3059,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2962,7 +3092,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2995,7 +3125,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3028,7 +3158,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3061,7 +3191,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3094,7 +3224,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3127,7 +3257,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3160,7 +3290,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3193,7 +3323,7 @@
         <v>-847586.8917758146</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3226,7 +3356,7 @@
         <v>-891390.5638758146</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3325,7 +3455,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3358,7 +3488,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3556,7 +3686,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3589,7 +3719,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3622,7 +3752,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3655,7 +3785,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3721,7 +3851,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,7 +3884,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3853,7 +3983,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3886,7 +4016,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3919,7 +4049,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3952,7 +4082,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +4115,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +4148,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4181,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4214,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4247,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4150,7 +4280,7 @@
         <v>390590.9121241855</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
